--- a/data/trans_dic/P9_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P9_1_R-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,63; 12,47</t>
+          <t>2,36; 11,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,01; 20,41</t>
+          <t>8,97; 20,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,91; 28,34</t>
+          <t>13,17; 28,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,38; 35,76</t>
+          <t>16,48; 34,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,7; 22,89</t>
+          <t>9,96; 22,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,55; 34,0</t>
+          <t>17,33; 34,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,15; 31,18</t>
+          <t>14,7; 30,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,17; 27,93</t>
+          <t>17,57; 27,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,28; 15,36</t>
+          <t>7,21; 15,4</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,85; 25,41</t>
+          <t>14,34; 24,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,94; 27,37</t>
+          <t>15,97; 26,63</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,51; 28,79</t>
+          <t>18,12; 27,97</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,53; 11,06</t>
+          <t>6,64; 11,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,9; 15,89</t>
+          <t>10,05; 15,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,98; 14,5</t>
+          <t>8,93; 14,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,38; 16,99</t>
+          <t>11,43; 17,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,61; 14,75</t>
+          <t>9,33; 14,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,85; 25,04</t>
+          <t>18,17; 25,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,67; 27,93</t>
+          <t>20,49; 27,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,77; 22,98</t>
+          <t>17,71; 23,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,83; 12,11</t>
+          <t>8,68; 12,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,87; 19,55</t>
+          <t>14,84; 19,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,65; 20,26</t>
+          <t>15,72; 20,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,29; 19,2</t>
+          <t>15,2; 19,18</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,04; 11,9</t>
+          <t>8,0; 11,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,37; 14,8</t>
+          <t>10,77; 15,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,13; 12,35</t>
+          <t>8,26; 12,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,63; 14,29</t>
+          <t>9,55; 14,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,68; 18,7</t>
+          <t>13,97; 18,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,89; 25,32</t>
+          <t>20,11; 25,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,36; 20,33</t>
+          <t>15,49; 20,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,21; 22,13</t>
+          <t>17,95; 22,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,57; 14,62</t>
+          <t>11,52; 14,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,89; 19,26</t>
+          <t>15,79; 19,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,42; 15,63</t>
+          <t>12,23; 15,6</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,29; 17,72</t>
+          <t>14,21; 17,6</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,56; 10,94</t>
+          <t>6,59; 10,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,66; 12,41</t>
+          <t>7,76; 12,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,49; 10,71</t>
+          <t>6,26; 10,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,87; 18,61</t>
+          <t>13,01; 18,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,0; 20,79</t>
+          <t>14,82; 20,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,82; 21,45</t>
+          <t>15,77; 21,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,02; 21,61</t>
+          <t>15,77; 21,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,16; 20,6</t>
+          <t>11,38; 20,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,32; 14,96</t>
+          <t>11,4; 14,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,42; 16,0</t>
+          <t>12,38; 16,26</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,69; 15,37</t>
+          <t>11,82; 15,44</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,84; 18,79</t>
+          <t>12,94; 18,75</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,54; 11,03</t>
+          <t>7,44; 10,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,41; 14,95</t>
+          <t>10,38; 14,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,06; 13,11</t>
+          <t>8,93; 13,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,28; 16,67</t>
+          <t>12,27; 16,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,72; 20,55</t>
+          <t>15,83; 20,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,78; 22,81</t>
+          <t>17,61; 22,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,47; 21,56</t>
+          <t>16,4; 21,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>20,13; 25,19</t>
+          <t>20,15; 25,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,56; 15,73</t>
+          <t>12,51; 15,69</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,88; 18,28</t>
+          <t>14,87; 18,22</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,52; 17,01</t>
+          <t>13,43; 16,93</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,09; 20,4</t>
+          <t>17,12; 20,51</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,13; 10,14</t>
+          <t>8,12; 10,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,88; 13,36</t>
+          <t>10,91; 13,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,42; 11,61</t>
+          <t>9,44; 11,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,83; 15,39</t>
+          <t>12,8; 15,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,08; 17,67</t>
+          <t>15,12; 17,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,51; 22,31</t>
+          <t>19,57; 22,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,92; 20,93</t>
+          <t>18,07; 20,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,37; 21,62</t>
+          <t>18,11; 21,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,95; 13,55</t>
+          <t>11,95; 13,54</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>15,63; 17,44</t>
+          <t>15,63; 17,43</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14,07; 15,95</t>
+          <t>14,19; 15,93</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,17; 18,33</t>
+          <t>16,23; 18,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P9_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P9_1_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,36; 11,9</t>
+          <t>2,65; 12,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,97; 20,61</t>
+          <t>8,53; 20,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,17; 28,37</t>
+          <t>13,15; 28,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,96; 22,77</t>
+          <t>9,98; 22,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,33; 34,92</t>
+          <t>17,58; 34,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,7; 30,64</t>
+          <t>14,5; 31,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,21; 15,4</t>
+          <t>7,1; 15,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,34; 24,91</t>
+          <t>15,16; 25,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,97; 26,63</t>
+          <t>16,07; 27,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,64; 11,15</t>
+          <t>6,52; 11,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,05; 15,88</t>
+          <t>9,67; 15,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,93; 14,35</t>
+          <t>9,08; 14,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,33; 14,84</t>
+          <t>9,6; 14,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,17; 25,09</t>
+          <t>18,12; 25,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,49; 27,97</t>
+          <t>20,94; 27,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,68; 12,15</t>
+          <t>8,73; 12,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,84; 19,47</t>
+          <t>14,85; 19,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,72; 20,05</t>
+          <t>15,42; 20,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,0; 11,72</t>
+          <t>7,95; 11,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,77; 15,0</t>
+          <t>10,61; 14,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,26; 12,13</t>
+          <t>8,2; 11,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,97; 18,78</t>
+          <t>13,79; 18,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,11; 25,85</t>
+          <t>19,79; 25,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,49; 20,54</t>
+          <t>15,57; 20,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,52; 14,65</t>
+          <t>11,45; 14,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,79; 19,4</t>
+          <t>15,74; 19,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,23; 15,6</t>
+          <t>12,4; 15,73</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,59; 10,97</t>
+          <t>6,6; 10,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,76; 12,24</t>
+          <t>7,63; 12,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,26; 10,5</t>
+          <t>6,36; 10,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,82; 20,63</t>
+          <t>15,0; 20,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,77; 21,65</t>
+          <t>15,97; 21,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,77; 21,76</t>
+          <t>15,74; 21,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,4; 14,98</t>
+          <t>11,47; 15,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,38; 16,26</t>
+          <t>12,41; 16,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,82; 15,44</t>
+          <t>11,82; 15,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,44; 10,95</t>
+          <t>7,5; 11,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,38; 14,93</t>
+          <t>10,37; 14,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,93; 13,25</t>
+          <t>8,74; 13,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,83; 20,71</t>
+          <t>15,9; 20,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,61; 22,8</t>
+          <t>17,56; 22,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,4; 21,32</t>
+          <t>16,66; 21,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,51; 15,69</t>
+          <t>12,4; 15,45</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,87; 18,22</t>
+          <t>14,7; 18,11</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,43; 16,93</t>
+          <t>13,53; 17,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,12; 10,05</t>
+          <t>8,08; 10,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,91; 13,21</t>
+          <t>10,87; 13,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,44; 11,53</t>
+          <t>9,43; 11,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,12; 17,72</t>
+          <t>15,14; 17,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,57; 22,35</t>
+          <t>19,55; 22,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,07; 20,73</t>
+          <t>18,06; 20,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,95; 13,54</t>
+          <t>11,97; 13,6</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>15,63; 17,43</t>
+          <t>15,72; 17,48</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14,19; 15,93</t>
+          <t>14,28; 16,03</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
